--- a/test_datas/test_datas.xlsx
+++ b/test_datas/test_datas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\repositories\PO_UI_Test_Framework\test_datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C63A30E-6E7A-4DA6-B366-E342E8D217C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33B9808-47DE-4265-B384-8A8A6704BC55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11835" yWindow="6300" windowWidth="18075" windowHeight="11340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12345" yWindow="660" windowWidth="16350" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_suite" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
   <si>
     <t>测试方法名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,13 @@
   </si>
   <si>
     <t>测试失败提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+  </si>
+  <si>
+    <t>MainTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -519,7 +526,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>8</v>
@@ -553,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C198A7D-27EE-41D0-AE63-46309FD4D290}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -562,7 +569,7 @@
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="5.25" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="15.625" customWidth="1"/>
     <col min="6" max="7" width="18" customWidth="1"/>
   </cols>
@@ -607,7 +614,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -631,7 +638,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
